--- a/docs/works.xlsx
+++ b/docs/works.xlsx
@@ -4,16 +4,61 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="works" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="February" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>TIMESHEET</t>
+  </si>
+  <si>
+    <t>cnr</t>
+  </si>
+  <si>
+    <t>.Architects</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Month:</t>
+  </si>
+  <si>
+    <t>February 2021</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Cody cody boiis</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>dont delete me</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>YEAs</t>
+  </si>
+  <si>
+    <t>gewerk</t>
   </si>
 </sst>
 </file>
@@ -390,12 +435,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
